--- a/2. Funciones Estadísticas - Ejercicio.xlsx
+++ b/2. Funciones Estadísticas - Ejercicio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelly\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Office certificate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E21A3-CFF4-42B8-847B-8F379B41DF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622B2498-58DD-4746-8816-2FE6A4D61C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="618" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,7 +838,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +950,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1100,7 +1108,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1181,6 +1189,12 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,12 +1202,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,6 +1222,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
@@ -3114,7 +3123,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A9:S35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
@@ -4095,7 +4104,9 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A8:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4264,14 +4275,17 @@
       <c r="L22" s="9">
         <v>480</v>
       </c>
-      <c r="N22" s="44" t="s">
+      <c r="N22" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="48"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="44">
+        <f>COUNTIF(E21:E52,"A")</f>
+        <v>14</v>
+      </c>
+      <c r="S22" s="45"/>
     </row>
     <row r="23" spans="3:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="9" t="s">
@@ -4301,14 +4315,17 @@
       <c r="L23" s="9">
         <v>250</v>
       </c>
-      <c r="N23" s="44" t="s">
+      <c r="N23" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="44">
+        <f>COUNTIF(E21:E52,"B")</f>
+        <v>10</v>
+      </c>
+      <c r="S23" s="45"/>
     </row>
     <row r="24" spans="3:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="9" t="s">
@@ -4338,14 +4355,17 @@
       <c r="L24" s="9">
         <v>480</v>
       </c>
-      <c r="N24" s="44" t="s">
+      <c r="N24" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="44">
+        <f>COUNTIF(E21:E52,"C")</f>
+        <v>8</v>
+      </c>
+      <c r="S24" s="45"/>
     </row>
     <row r="25" spans="3:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D25" s="9" t="s">
@@ -4441,14 +4461,17 @@
       <c r="L27" s="9">
         <v>410</v>
       </c>
-      <c r="N27" s="44" t="s">
+      <c r="N27" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="48"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="44">
+        <f>COUNTIF(H21:H52,"S")</f>
+        <v>17</v>
+      </c>
+      <c r="S27" s="45"/>
     </row>
     <row r="28" spans="3:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="9" t="s">
@@ -4478,14 +4501,17 @@
       <c r="L28" s="9">
         <v>450</v>
       </c>
-      <c r="N28" s="44" t="s">
+      <c r="N28" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="47">
+        <f>COUNTIF(H21:H52,"C")</f>
+        <v>15</v>
+      </c>
+      <c r="S28" s="48"/>
     </row>
     <row r="29" spans="3:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
@@ -4581,14 +4607,17 @@
       <c r="L31" s="9">
         <v>250</v>
       </c>
-      <c r="N31" s="44" t="s">
+      <c r="N31" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="48"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="44">
+        <f>COUNTIF(F21:F52,"M")</f>
+        <v>12</v>
+      </c>
+      <c r="S31" s="45"/>
     </row>
     <row r="32" spans="3:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D32" s="9" t="s">
@@ -4618,14 +4647,17 @@
       <c r="L32" s="9">
         <v>320</v>
       </c>
-      <c r="N32" s="44" t="s">
+      <c r="N32" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="47">
+        <f>COUNTIF(F21:F52,"T")</f>
+        <v>12</v>
+      </c>
+      <c r="S32" s="48"/>
     </row>
     <row r="33" spans="4:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="9" t="s">
@@ -4655,14 +4687,17 @@
       <c r="L33" s="9">
         <v>420</v>
       </c>
-      <c r="N33" s="44" t="s">
+      <c r="N33" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="47">
+        <f>COUNTIF(F21:F52,"N")</f>
+        <v>8</v>
+      </c>
+      <c r="S33" s="48"/>
     </row>
     <row r="34" spans="4:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
@@ -4953,6 +4988,7 @@
       <c r="L43" s="9">
         <v>400</v>
       </c>
+      <c r="R43" s="55"/>
     </row>
     <row r="44" spans="4:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D44" s="9" t="s">
@@ -5217,6 +5253,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:S32"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="R28:S28"/>
@@ -5229,13 +5272,6 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="N26:S26"/>
     <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:S32"/>
   </mergeCells>
   <conditionalFormatting sqref="D9">
     <cfRule type="duplicateValues" dxfId="41" priority="2"/>
@@ -5248,7 +5284,8 @@
     <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5400,12 +5437,12 @@
         <v>748</v>
       </c>
       <c r="J21" s="37"/>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
       <c r="O21" s="49"/>
       <c r="P21" s="50"/>
     </row>
@@ -5429,12 +5466,12 @@
         <v>231</v>
       </c>
       <c r="J22" s="37"/>
-      <c r="K22" s="44" t="s">
+      <c r="K22" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
       <c r="O22" s="49"/>
       <c r="P22" s="50"/>
     </row>
@@ -5458,14 +5495,14 @@
         <v>35</v>
       </c>
       <c r="J23" s="37"/>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="48"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="45"/>
     </row>
     <row r="24" spans="3:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D24" s="38">
@@ -5534,12 +5571,12 @@
       <c r="I26" s="39">
         <v>201</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
       <c r="O26" s="49"/>
       <c r="P26" s="50"/>
     </row>
@@ -5562,12 +5599,12 @@
       <c r="I27" s="39">
         <v>770</v>
       </c>
-      <c r="K27" s="44" t="s">
+      <c r="K27" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
       <c r="O27" s="49"/>
       <c r="P27" s="50"/>
     </row>
@@ -5590,14 +5627,14 @@
       <c r="I28" s="39">
         <v>938</v>
       </c>
-      <c r="K28" s="44" t="s">
+      <c r="K28" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="45"/>
     </row>
     <row r="29" spans="3:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D29" s="38">
@@ -5666,12 +5703,12 @@
       <c r="I31" s="39">
         <v>432</v>
       </c>
-      <c r="K31" s="44" t="s">
+      <c r="K31" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
       <c r="O31" s="49"/>
       <c r="P31" s="50"/>
     </row>
@@ -5694,12 +5731,12 @@
       <c r="I32" s="39">
         <v>792</v>
       </c>
-      <c r="K32" s="44" t="s">
+      <c r="K32" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
       <c r="O32" s="49"/>
       <c r="P32" s="50"/>
     </row>
@@ -5722,14 +5759,14 @@
       <c r="I33" s="39">
         <v>858</v>
       </c>
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="48"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" spans="4:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D34" s="38">
@@ -5801,12 +5838,12 @@
       <c r="I36" s="39">
         <v>980</v>
       </c>
-      <c r="K36" s="44" t="s">
+      <c r="K36" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="49"/>
       <c r="P36" s="50"/>
     </row>
@@ -5829,12 +5866,12 @@
       <c r="I37" s="39">
         <v>358</v>
       </c>
-      <c r="K37" s="44" t="s">
+      <c r="K37" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
       <c r="O37" s="49"/>
       <c r="P37" s="50"/>
     </row>
@@ -5857,28 +5894,17 @@
       <c r="I38" s="39">
         <v>875</v>
       </c>
-      <c r="K38" s="44" t="s">
+      <c r="K38" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="48"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O21:P23"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="O26:P28"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K30:P30"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="O36:P38"/>
     <mergeCell ref="K37:N37"/>
@@ -5888,6 +5914,17 @@
     <mergeCell ref="K32:N32"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K35:P35"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:P28"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O21:P23"/>
   </mergeCells>
   <conditionalFormatting sqref="D9">
     <cfRule type="duplicateValues" dxfId="35" priority="2"/>
